--- a/output/active.xlsx
+++ b/output/active.xlsx
@@ -479,11 +479,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>748520</v>
+        <v>748530</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rasaerba 4850 E</t>
+          <t>Rasaerba 4850 ISB</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,17 @@
           <t>Macchine</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Rasaerba</t>
-        </is>
-      </c>
       <c r="E2" t="n">
-        <v>724</v>
+        <v>750</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>Motore: Briggs &amp; Stratton
-Tipo: 82Li Series - 82V 5Ah
-Avanzamento: Spinta
+Cilindrata (cc): 140
+Tipo: 575iS Series InStart -OHV
+Capacità Serbatoio (lt): 0.8 
+Avanzamento: Semovente
+Trasmissione: 1 marcia
 Tipo Ruote: Plastica
 Diametro Ruote: 200
 Superficie prato (m2): 0-500
@@ -538,22 +536,22 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\active\Rasaerba-4850-E.jpg</t>
+          <t>C:\ImmaginiDanea\active\Rasaerba-4850-ISB.jpg</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-lamiera/4850-e</t>
+          <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-lamiera/4850-isb</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>749503</v>
+        <v>753501</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rasaerba 4950 SH</t>
+          <t>Rasaerba 5333 SH</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -567,7 +565,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>711</v>
+        <v>945</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -582,15 +580,15 @@
 Diametro Ruote: 200
 Regolazione Altezza di Taglio: Anteriore/Posteriore
 Dispositivo Sicurezza (freno motore): SI
-Velocità Semovenza (km/h): 4
-Superficie prato (m2): 600-1000
+Velocità Semovenza (km/h): 4
+Superficie prato (m2): 1000-1500
 Scocca: ACCIAIO
-Larghezza Lama (cm): 46
-Larghezza Taglio (cm): 48
+Larghezza Lama (cm): 51
+Larghezza Taglio (cm): 53
 Altezza Taglio (mm): 25 - 75
 Posizioni Altezza Taglio: 6
-Capacità cesto (lt.): 55
-Peso (Kg): 30
+Capacità cesto (lt.): 60
+Peso (Kg): 37
 Paracolpi anteriore: NO
 Rumorosità (db): 96
 Conformità: CE
@@ -619,38 +617,199 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\active\Rasaerba-4950-SH.jpg</t>
+          <t>C:\ImmaginiDanea\active\Rasaerba-5333-SH.jpg</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-lamiera/4950-sh</t>
+          <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-lamiera/5333-sh</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>750000</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rasaerba 5000 B</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Rasaerba</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>752</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Motore: Briggs &amp; Stratton
+Tipo: 675 exi Series - OHV
+Cilindrata: 163 CC
+Capacità Serbatoio Benzina (lt.): 1.0
+Avviamento: A strappo con autoavvolgente
+Avanzamento: Spinta
+Trasmissione: nd
+Tipo Ruote: Plastica
+Diametro Ruote: 200
+Regolazione Altezza di Taglio: Centralizzata
+Dispositivo Sicurezza (freno motore): SI
+Superficie prato (m2): 600-1000
+Scocca: ALLUMINIO
+Larghezza Lama (cm): 48
+Larghezza Taglio (cm): 50
+Altezza Taglio (mm): 25 - 70
+Posizioni Altezza Taglio: 7
+Capacità cesto (lt.): 60
+Peso (Kg): 39
+Paracolpi anteriore: SI
+Rumorosità (db): 96
+Conformità: CE
+Candela RAX 90
+Tappo acqua: Si
+Rubinetto benzina: No
+BBC Security System: No
+Antivibration System: No
+ReadyStart: Si
+Auto Choke System: No</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Active srl</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\active\Rasaerba-5000-B.jpg</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-alluminio/5000-b</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>742502</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rasaerba 4250 A</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Rasaerba</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>381</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Motore: Active
+Tipo: Active120 - OHV
+Cilindrata: 120 CC
+Capacità Serbatoio Benzina (lt.): 0.8
+Avviamento: A strappo con autoavvolgente
+Avanzamento: Spinta
+Trasmissione: nd
+Tipo Ruote: Plastica
+Diametro Ruote: 175
+Regolazione Altezza di Taglio: Anteriore/Posteriore
+Dispositivo Sicurezza (freno motore): SI
+Superficie prato (m2): 600-1000
+Scocca: ACCIAIO
+Larghezza Lama (cm): 43
+Larghezza Taglio (cm): 43
+Altezza Taglio (mm): 15 - 65
+Posizioni Altezza Taglio: 6
+Capacità cesto (lt.): 55
+Peso (Kg): 26
+Paracolpi anteriore: NO
+Rumorosità (db): 96
+Conformità: CE
+Tappo acqua: Si
+Rubinetto benzina: No
+BBC Security System: No
+Antivibration System: No
+ReadyStart: No
+Auto Choke System: No</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Active srl</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\active\Rasaerba-4250-A.jpg</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-lamiera/4250</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>785100</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Rasaerba 5850 SVB</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Rasaerba</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="E6" t="n">
         <v>1191</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Motore: Briggs &amp; Stratton
 Tipo: 850e SERIES I/C (canna in ghisa) - OHV
@@ -684,55 +843,55 @@
 Auto Choke System: No</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Active srl</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>0006</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>C:\ImmaginiDanea\active\Rasaerba-5850-SVB.jpg</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-alluminio/5850-svb</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="7">
+      <c r="A7" t="n">
         <v>758100</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Rasaerba 5800 SB</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Rasaerba</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="E7" t="n">
         <v>1134</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Motore: Briggs &amp; Stratton
 Tipo: 850e SERIES I/C (canna in ghisa) - OHV
@@ -766,136 +925,55 @@
 Auto Choke System: No</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Active srl</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>0006</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>C:\ImmaginiDanea\active\Rasaerba-5800-SB.jpg</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-alluminio/5800-sb</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>754110</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Rasaerba 5400 SH</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="n">
+        <v>754210</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rasaerba 5400 SVH</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>Rasaerba</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>1034</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Motore: Honda
-Tipo: GCV160 - OHC
-Cilindrata: 160 CC
-Capacità Serbatoio Benzina (lt.): 0.9
-Avviamento: A strappo con autoavvolgente
-Avanzamento: Semovente
-Trasmissione: 1 Marcia
-Tipo Ruote: Alluminio
-Diametro Ruote: 205
-Regolazione Altezza di Taglio: Centralizzata
-Dispositivo Sicurezza (freno motore): SI
-Velocità Semovenza (km/h): 4
-Superficie prato (m2): 1000-1500
-Scocca: ALLUMINIO
-Larghezza Lama (cm): 51
-Larghezza Taglio (cm): 53
-Altezza Taglio (mm): 25 - 70
-Posizioni Altezza Taglio: 7
-Capacità cesto (lt.): 65
-Peso (Kg): 40
-Paracolpi anteriore: SI
-Rumorosità (db): 96
-Conformità: CE
-Tappo acqua: Si
-Rubinetto benzina: Si
-BBC Security System: No
-Antivibration System: No
-ReadyStart: No
-Auto Choke System: Si</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Active srl</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0006</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\active\Rasaerba-5400-SH.jpg</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-alluminio/5400-sh</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>754210</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Rasaerba 5400 SVH</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Rasaerba</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
+      <c r="E8" t="n">
         <v>1076</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Motore: Honda
 Tipo: GCV160 - OHC
@@ -928,110 +1006,29 @@
 Auto Choke System: Si</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Active srl</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>0006</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>C:\ImmaginiDanea\active\Rasaerba-5400-SVH.jpg</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-alluminio/5400-svh</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>750110</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Rasaerba 5000 SH</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Rasaerba</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>960</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Motore: Honda
-Tipo: GCV160 - OHC
-Cilindrata: 160 CC
-Capacità Serbatoio Benzina (lt.): 0.9
-Avviamento: A strappo con autoavvolgente
-Avanzamento: Semovente
-Trasmissione: 1 Marcia
-Tipo Ruote: Plastica
-Diametro Ruote: 200
-Regolazione Altezza di Taglio: Centralizzata
-Dispositivo Sicurezza (freno motore): SI
-Velocità Semovenza (km/h): 4
-Superficie prato (m2): 600-1000
-Scocca: ALLUMINIO
-Larghezza Lama (cm): 48
-Larghezza Taglio (cm): 50
-Altezza Taglio (mm): 25 - 70
-Posizioni Altezza Taglio: 7
-Capacità cesto (lt.): 60
-Peso (Kg): 40
-Paracolpi anteriore: SI
-Rumorosità (db): 96
-Conformità: CE
-Tappo acqua: Si
-Rubinetto benzina: Si
-BBC Security System: No
-Antivibration System: No
-ReadyStart: No
-Auto Choke System: Si</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Active srl</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0006</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\active\Rasaerba-5000-SH.jpg</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-alluminio/5000-sh</t>
         </is>
       </c>
     </row>
@@ -1119,11 +1116,11 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>753500</v>
+        <v>754110</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rasaerba 5333 SB</t>
+          <t>Rasaerba 5400 SH</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1137,39 +1134,39 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>839</v>
+        <v>1034</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Motore: Briggs &amp; Stratton
-Tipo: 675exi SERIES - OHV
-Cilindrata: 163 CC
-Capacità Serbatoio Benzina (lt.): 1.0
+          <t>Motore: Honda
+Tipo: GCV160 - OHC
+Cilindrata: 160 CC
+Capacità Serbatoio Benzina (lt.): 0.9
 Avviamento: A strappo con autoavvolgente
 Avanzamento: Semovente
 Trasmissione: 1 Marcia
-Tipo Ruote: Plastica
-Regolazione Altezza di Taglio: Anteriore/Posteriore
+Tipo Ruote: Alluminio
+Diametro Ruote: 205
+Regolazione Altezza di Taglio: Centralizzata
 Dispositivo Sicurezza (freno motore): SI
 Velocità Semovenza (km/h): 4
 Superficie prato (m2): 1000-1500
-Scocca: ACCIAIO
+Scocca: ALLUMINIO
 Larghezza Lama (cm): 51
 Larghezza Taglio (cm): 53
-Altezza Taglio (mm): 25 - 75
-Posizioni Altezza Taglio: 6
-Capacità cesto (lt.): 60
-Peso (Kg): 37
-Paracolpi anteriore: si
-Rumorosità (db): 98
+Altezza Taglio (mm): 25 - 70
+Posizioni Altezza Taglio: 7
+Capacità cesto (lt.): 65
+Peso (Kg): 40
+Paracolpi anteriore: SI
+Rumorosità (db): 96
 Conformità: CE
-Candela RAX 90
 Tappo acqua: Si
-Rubinetto benzina: No
+Rubinetto benzina: Si
 BBC Security System: No
 Antivibration System: No
-ReadyStart: Si
-Auto Choke System: No</t>
+ReadyStart: No
+Auto Choke System: Si</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1189,22 +1186,22 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\active\Rasaerba-5333-SB.jpg</t>
+          <t>C:\ImmaginiDanea\active\Rasaerba-5400-SH.jpg</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-lamiera/5333-sb</t>
+          <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-alluminio/5400-sh</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>753501</v>
+        <v>750110</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rasaerba 5333 SH</t>
+          <t>Rasaerba 5000 SH</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1218,7 +1215,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>945</v>
+        <v>960</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1231,18 +1228,18 @@
 Trasmissione: 1 Marcia
 Tipo Ruote: Plastica
 Diametro Ruote: 200
-Regolazione Altezza di Taglio: Anteriore/Posteriore
+Regolazione Altezza di Taglio: Centralizzata
 Dispositivo Sicurezza (freno motore): SI
-Velocità Semovenza (km/h): 4
-Superficie prato (m2): 1000-1500
-Scocca: ACCIAIO
-Larghezza Lama (cm): 51
-Larghezza Taglio (cm): 53
-Altezza Taglio (mm): 25 - 75
-Posizioni Altezza Taglio: 6
+Velocità Semovenza (km/h): 4
+Superficie prato (m2): 600-1000
+Scocca: ALLUMINIO
+Larghezza Lama (cm): 48
+Larghezza Taglio (cm): 50
+Altezza Taglio (mm): 25 - 70
+Posizioni Altezza Taglio: 7
 Capacità cesto (lt.): 60
-Peso (Kg): 37
-Paracolpi anteriore: NO
+Peso (Kg): 40
+Paracolpi anteriore: SI
 Rumorosità (db): 96
 Conformità: CE
 Tappo acqua: Si
@@ -1270,38 +1267,120 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\active\Rasaerba-5333-SH.jpg</t>
+          <t>C:\ImmaginiDanea\active\Rasaerba-5000-SH.jpg</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-lamiera/5333-sh</t>
+          <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-alluminio/5000-sh</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>750100</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rasaerba 5000 SB</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Rasaerba</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>864</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Motore: Briggs &amp; Stratton
+Tipo: 675 exi SERIES - OHV
+Cilindrata: 163 CC
+Capacità Serbatoio Benzina (lt.): 1.0
+Avviamento: A strappo con autoavvolgente
+Avanzamento: Semovente
+Trasmissione: 1 Marcia
+Tipo Ruote: Plastica
+Diametro Ruote: 200
+Regolazione Altezza di Taglio: Centralizzata
+Dispositivo Sicurezza (freno motore): SI
+Velocità Semovenza (km/h): 4
+Superficie prato (m2): 600-1000
+Scocca: ALLUMINIO
+Larghezza Lama (cm): 48
+Larghezza Taglio (cm): 50
+Altezza Taglio (mm): 25 - 70
+Posizioni Altezza Taglio: 7
+Capacità cesto (lt.): 60
+Peso (Kg): 40
+Paracolpi anteriore: SI
+Rumorosità (db): 96
+Conformità: CE
+Candela RAX 90
+Tappo acqua: Si
+Rubinetto benzina: No
+BBC Security System: No
+Antivibration System: No
+ReadyStart: Si
+Auto Choke System: No</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Active srl</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\active\Rasaerba-5000-SB.jpg</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-alluminio/5000-sb</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>748501</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Rasaerba 4850 SB</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>Rasaerba</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="E13" t="n">
         <v>565</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Motore: Briggs &amp; Stratton
 Tipo: 575ex SERIES - OHV
@@ -1335,55 +1414,217 @@
 Auto Choke System: No</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Active srl</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>0006</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>C:\ImmaginiDanea\active\Rasaerba-4850-SB.jpg</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-lamiera/4850-sb</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="14">
+      <c r="A14" t="n">
+        <v>753500</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Rasaerba 5333 SB</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Rasaerba</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>839</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Motore: Briggs &amp; Stratton
+Tipo: 675exi SERIES - OHV
+Cilindrata: 163 CC
+Capacità Serbatoio Benzina (lt.): 1.0
+Avviamento: A strappo con autoavvolgente
+Avanzamento: Semovente
+Trasmissione: 1 Marcia
+Tipo Ruote: Plastica
+Regolazione Altezza di Taglio: Anteriore/Posteriore
+Dispositivo Sicurezza (freno motore): SI
+Velocità Semovenza (km/h): 4
+Superficie prato (m2): 1000-1500
+Scocca: ACCIAIO
+Larghezza Lama (cm): 51
+Larghezza Taglio (cm): 53
+Altezza Taglio (mm): 25 - 75
+Posizioni Altezza Taglio: 6
+Capacità cesto (lt.): 60
+Peso (Kg): 37
+Paracolpi anteriore: si
+Rumorosità (db): 98
+Conformità: CE
+Candela RAX 90
+Tappo acqua: Si
+Rubinetto benzina: No
+BBC Security System: No
+Antivibration System: No
+ReadyStart: Si
+Auto Choke System: No</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Active srl</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\active\Rasaerba-5333-SB.jpg</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-lamiera/5333-sb</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>749503</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Rasaerba 4950 SH</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Rasaerba</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>711</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Motore: Honda
+Tipo: GCV160 - OHC
+Cilindrata: 160 CC
+Capacità Serbatoio Benzina (lt.): 0.9
+Avviamento: A strappo con autoavvolgente
+Avanzamento: Semovente
+Trasmissione: 1 Marcia
+Tipo Ruote: Plastica
+Diametro Ruote: 200
+Regolazione Altezza di Taglio: Anteriore/Posteriore
+Dispositivo Sicurezza (freno motore): SI
+Velocità Semovenza (km/h): 4
+Superficie prato (m2): 600-1000
+Scocca: ACCIAIO
+Larghezza Lama (cm): 46
+Larghezza Taglio (cm): 48
+Altezza Taglio (mm): 25 - 75
+Posizioni Altezza Taglio: 6
+Capacità cesto (lt.): 55
+Peso (Kg): 30
+Paracolpi anteriore: NO
+Rumorosità (db): 96
+Conformità: CE
+Tappo acqua: Si
+Rubinetto benzina: Si
+BBC Security System: No
+Antivibration System: No
+ReadyStart: No
+Auto Choke System: Si</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Active srl</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>C:\ImmaginiDanea\active\Rasaerba-4950-SH.jpg</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-lamiera/4950-sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>742503</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Rasaerba 4250 SA</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>Rasaerba</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="E16" t="n">
         <v>450</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Motore: Active
 Tipo: Active120 - OHV
@@ -1417,282 +1658,39 @@
 Auto Choke System: No</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Active srl</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>0006</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>C:\ImmaginiDanea\active\Rasaerba-4250-SA.jpg</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-lamiera/4250-sa</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>750100</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Rasaerba 5000 SB</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Rasaerba</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>864</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Motore: Briggs &amp; Stratton
-Tipo: 675 exi SERIES - OHV
-Cilindrata: 163 CC
-Capacità Serbatoio Benzina (lt.): 1.0
-Avviamento: A strappo con autoavvolgente
-Avanzamento: Semovente
-Trasmissione: 1 Marcia
-Tipo Ruote: Plastica
-Diametro Ruote: 200
-Regolazione Altezza di Taglio: Centralizzata
-Dispositivo Sicurezza (freno motore): SI
-Velocità Semovenza (km/h): 4
-Superficie prato (m2): 600-1000
-Scocca: ALLUMINIO
-Larghezza Lama (cm): 48
-Larghezza Taglio (cm): 50
-Altezza Taglio (mm): 25 - 70
-Posizioni Altezza Taglio: 7
-Capacità cesto (lt.): 60
-Peso (Kg): 40
-Paracolpi anteriore: SI
-Rumorosità (db): 96
-Conformità: CE
-Candela RAX 90
-Tappo acqua: Si
-Rubinetto benzina: No
-BBC Security System: No
-Antivibration System: No
-ReadyStart: Si
-Auto Choke System: No</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Active srl</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0006</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\active\Rasaerba-5000-SB.jpg</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-alluminio/5000-sb</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>750000</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Rasaerba 5000 B</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Rasaerba</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>752</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Motore: Briggs &amp; Stratton
-Tipo: 675 exi Series - OHV
-Cilindrata: 163 CC
-Capacità Serbatoio Benzina (lt.): 1.0
-Avviamento: A strappo con autoavvolgente
-Avanzamento: Spinta
-Trasmissione: nd
-Tipo Ruote: Plastica
-Diametro Ruote: 200
-Regolazione Altezza di Taglio: Centralizzata
-Dispositivo Sicurezza (freno motore): SI
-Superficie prato (m2): 600-1000
-Scocca: ALLUMINIO
-Larghezza Lama (cm): 48
-Larghezza Taglio (cm): 50
-Altezza Taglio (mm): 25 - 70
-Posizioni Altezza Taglio: 7
-Capacità cesto (lt.): 60
-Peso (Kg): 39
-Paracolpi anteriore: SI
-Rumorosità (db): 96
-Conformità: CE
-Candela RAX 90
-Tappo acqua: Si
-Rubinetto benzina: No
-BBC Security System: No
-Antivibration System: No
-ReadyStart: Si
-Auto Choke System: No</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Active srl</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0006</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\active\Rasaerba-5000-B.jpg</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-alluminio/5000-b</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>742502</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Rasaerba 4250 A</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Rasaerba</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>381</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Motore: Active
-Tipo: Active120 - OHV
-Cilindrata: 120 CC
-Capacità Serbatoio Benzina (lt.): 0.8
-Avviamento: A strappo con autoavvolgente
-Avanzamento: Spinta
-Trasmissione: nd
-Tipo Ruote: Plastica
-Diametro Ruote: 175
-Regolazione Altezza di Taglio: Anteriore/Posteriore
-Dispositivo Sicurezza (freno motore): SI
-Superficie prato (m2): 600-1000
-Scocca: ACCIAIO
-Larghezza Lama (cm): 43
-Larghezza Taglio (cm): 43
-Altezza Taglio (mm): 15 - 65
-Posizioni Altezza Taglio: 6
-Capacità cesto (lt.): 55
-Peso (Kg): 26
-Paracolpi anteriore: NO
-Rumorosità (db): 96
-Conformità: CE
-Tappo acqua: Si
-Rubinetto benzina: No
-BBC Security System: No
-Antivibration System: No
-ReadyStart: No
-Auto Choke System: No</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Active srl</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0006</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>C:\ImmaginiDanea\active\Rasaerba-4250-A.jpg</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-lamiera/4250</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>748530</v>
+        <v>748520</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Rasaerba 4850 ISB</t>
+          <t>Rasaerba 4850 E</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1700,17 +1698,19 @@
           <t>Macchine</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Rasaerba</t>
+        </is>
+      </c>
       <c r="E17" t="n">
-        <v>750</v>
+        <v>724</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>Motore: Briggs &amp; Stratton
-Cilindrata (cc): 140
-Tipo: 575iS Series InStart -OHV
-Capacità Serbatoio (lt): 0.8 
-Avanzamento: Semovente
-Trasmissione: 1 marcia
+Tipo: 82Li Series - 82V 5Ah
+Avanzamento: Spinta
 Tipo Ruote: Plastica
 Diametro Ruote: 200
 Superficie prato (m2): 0-500
@@ -1745,12 +1745,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\active\Rasaerba-4850-ISB.jpg</t>
+          <t>C:\ImmaginiDanea\active\Rasaerba-4850-E.jpg</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-lamiera/4850-isb</t>
+          <t>https://www.active-srl.com/it/catalogo/rasaerba/scocca-lamiera/4850-e</t>
         </is>
       </c>
     </row>
